--- a/pillar_coordinates.xlsx
+++ b/pillar_coordinates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Pillar</t>
   </si>
@@ -43,67 +43,52 @@
     <t>Pillar 4</t>
   </si>
   <si>
-    <t>Pillar 5</t>
-  </si>
-  <si>
-    <t>tensor(80.7100)</t>
-  </si>
-  <si>
-    <t>tensor(119.8708)</t>
-  </si>
-  <si>
-    <t>tensor(0.0923)</t>
-  </si>
-  <si>
-    <t>tensor(163.6478)</t>
-  </si>
-  <si>
-    <t>tensor(183.6810)</t>
-  </si>
-  <si>
-    <t>tensor(11.8123)</t>
-  </si>
-  <si>
-    <t>tensor(27.8497)</t>
-  </si>
-  <si>
-    <t>tensor(5.8704)</t>
-  </si>
-  <si>
-    <t>tensor(41.8004)</t>
-  </si>
-  <si>
-    <t>tensor(49.1185)</t>
-  </si>
-  <si>
-    <t>tensor(108.9203)</t>
-  </si>
-  <si>
-    <t>tensor(144.6658)</t>
-  </si>
-  <si>
-    <t>tensor(12.6691)</t>
-  </si>
-  <si>
-    <t>tensor(183.2841)</t>
-  </si>
-  <si>
-    <t>tensor(197.6480)</t>
-  </si>
-  <si>
-    <t>tensor(138.9124)</t>
-  </si>
-  <si>
-    <t>tensor(133.0851)</t>
-  </si>
-  <si>
-    <t>tensor(163.9462)</t>
-  </si>
-  <si>
-    <t>tensor(120.4986)</t>
-  </si>
-  <si>
-    <t>tensor(116.0828)</t>
+    <t>tensor(226.4500)</t>
+  </si>
+  <si>
+    <t>tensor(124.2715)</t>
+  </si>
+  <si>
+    <t>tensor(164.8551)</t>
+  </si>
+  <si>
+    <t>tensor(77.4982)</t>
+  </si>
+  <si>
+    <t>tensor(0.)</t>
+  </si>
+  <si>
+    <t>tensor(1.8315)</t>
+  </si>
+  <si>
+    <t>tensor(1.7403)</t>
+  </si>
+  <si>
+    <t>tensor(7.2889)</t>
+  </si>
+  <si>
+    <t>tensor(273.1782)</t>
+  </si>
+  <si>
+    <t>tensor(150.9574)</t>
+  </si>
+  <si>
+    <t>tensor(194.8680)</t>
+  </si>
+  <si>
+    <t>tensor(95.3888)</t>
+  </si>
+  <si>
+    <t>tensor(159.0916)</t>
+  </si>
+  <si>
+    <t>tensor(131.3648)</t>
+  </si>
+  <si>
+    <t>tensor(143.9533)</t>
+  </si>
+  <si>
+    <t>tensor(98.0341)</t>
   </si>
 </sst>
 </file>
@@ -461,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,16 +474,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -506,16 +491,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -523,16 +508,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -540,33 +525,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
